--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE4CE36-FF96-4899-8FC1-1976DD1A68AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C93D688-893B-47A0-B283-4A88C0DF0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{8AB62E3A-64F3-4F7E-95CC-5B53D36D42C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32234464-0AA9-4832-8CB6-CBF44E7186E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,52 +35,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>Numero de factura</t>
-  </si>
-  <si>
-    <t>Fecha de factura</t>
-  </si>
-  <si>
-    <t>Fecha de vencimiento</t>
-  </si>
-  <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>NIF</t>
-  </si>
-  <si>
-    <t>CP y ciudad</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>CIF</t>
-  </si>
-  <si>
-    <t>Base imponible</t>
-  </si>
-  <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Nombre/Razón Social</t>
+  </si>
+  <si>
+    <t>NIT/CI/CEX</t>
+  </si>
+  <si>
+    <t>Factura Nº</t>
+  </si>
+  <si>
+    <t>Cód. Autorización</t>
+  </si>
+  <si>
+    <t>Monto a Pagar Bs</t>
+  </si>
+  <si>
+    <t>Nombre del Emisor</t>
+  </si>
+  <si>
+    <t>NIT del Emisor</t>
+  </si>
+  <si>
+    <t>Dirección del Emisor</t>
+  </si>
+  <si>
+    <t>Teléfono del Emisor</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>País</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE2E2E5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,32 +428,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442DACF2-2A1C-4561-B769-0E96FF23FD1F}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105ACEC6-2539-413B-B3C1-9806C3A6A79B}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -461,28 +460,23 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>